--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_12.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003_12.xlsx
@@ -77,11 +77,12 @@
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -97,12 +98,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
@@ -227,23 +222,23 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -252,71 +247,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,8 +401,8 @@
   </sheetPr>
   <dimension ref="A1:AJ997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE19" activeCellId="0" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
